--- a/src/main/resources/report_templates/EXCEL_TO_PRODUCTION_SPARE_PART.xlsx
+++ b/src/main/resources/report_templates/EXCEL_TO_PRODUCTION_SPARE_PART.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\MeuPro\MeUVipPro\src\main\resources\report_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{462FD13F-9DA8-4267-859E-8F9156AC5F17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4E0A50-1D74-4341-AD2E-F6499DC53565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_tính1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
   <si>
     <t>PO</t>
   </si>
@@ -45,103 +45,100 @@
     <t>NV20240824-SP</t>
   </si>
   <si>
+    <t>Mã hàng hóa</t>
+  </si>
+  <si>
+    <t>920200800037</t>
+  </si>
+  <si>
+    <t>920201000002</t>
+  </si>
+  <si>
+    <t>920200300004</t>
+  </si>
+  <si>
+    <t>920200100020</t>
+  </si>
+  <si>
+    <t>256833510001</t>
+  </si>
+  <si>
+    <t>Mô tả</t>
+  </si>
+  <si>
+    <t>1. KHO HÀNG CHỜ SẢN XUẤT: Bao gồm các trường sau (kho phụ tùng)</t>
+  </si>
+  <si>
+    <t>Key switch ( two channels for one gear )</t>
+  </si>
+  <si>
+    <t>Combined switch</t>
+  </si>
+  <si>
+    <t>Brake lamp switch JK231</t>
+  </si>
+  <si>
+    <t>Micro-switch ( valve control ) RZ-15GQ22-B3</t>
+  </si>
+  <si>
+    <t>Emergency switch LAY39-01MJ-RC</t>
+  </si>
+  <si>
+    <t>DC converter P80W300-24V</t>
+  </si>
+  <si>
+    <t>Số hợp đồng</t>
+  </si>
+  <si>
+    <t>Số lượng</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>002</t>
+  </si>
+  <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t>004</t>
+  </si>
+  <si>
+    <t>005</t>
+  </si>
+  <si>
+    <t>006</t>
+  </si>
+  <si>
+    <t>Giá bán R0</t>
+  </si>
+  <si>
+    <t>Giá bán R1</t>
+  </si>
+  <si>
+    <t>Ngày dự kiến sản xuất xong</t>
+  </si>
+  <si>
+    <t>Ghi chú</t>
+  </si>
+  <si>
     <t>FE4P25-35Q</t>
   </si>
   <si>
-    <t>Mã hàng hóa</t>
-  </si>
-  <si>
-    <t>920200200030</t>
-  </si>
-  <si>
-    <t>920200800037</t>
-  </si>
-  <si>
-    <t>920201000002</t>
-  </si>
-  <si>
-    <t>920200300004</t>
-  </si>
-  <si>
-    <t>920200100020</t>
-  </si>
-  <si>
-    <t>256833510001</t>
-  </si>
-  <si>
-    <t>Mô tả</t>
-  </si>
-  <si>
-    <t>1. KHO HÀNG CHỜ SẢN XUẤT: Bao gồm các trường sau (kho phụ tùng)</t>
-  </si>
-  <si>
-    <t>Key switch ( two channels for one gear )</t>
-  </si>
-  <si>
-    <t>Combined switch</t>
-  </si>
-  <si>
-    <t>Brake lamp switch JK231</t>
-  </si>
-  <si>
-    <t>Micro-switch ( valve control ) RZ-15GQ22-B3</t>
-  </si>
-  <si>
-    <t>Emergency switch LAY39-01MJ-RC</t>
-  </si>
-  <si>
-    <t>DC converter P80W300-24V</t>
-  </si>
-  <si>
-    <t>Số hợp đồng</t>
-  </si>
-  <si>
-    <t>Số lượng</t>
-  </si>
-  <si>
-    <t>001</t>
-  </si>
-  <si>
-    <t>002</t>
-  </si>
-  <si>
-    <t>003</t>
-  </si>
-  <si>
-    <t>004</t>
-  </si>
-  <si>
-    <t>005</t>
-  </si>
-  <si>
-    <t>006</t>
-  </si>
-  <si>
-    <t>Giá bán R0</t>
-  </si>
-  <si>
-    <t>Giá bán R1</t>
-  </si>
-  <si>
-    <t>Ngày dự kiến sản xuất xong</t>
+    <t>251233020001</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
     </font>
     <font>
       <sz val="11"/>
@@ -195,27 +192,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -230,81 +212,69 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
+      <top style="thin">
+        <color rgb="FF000000"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -522,274 +492,316 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M1000"/>
+  <dimension ref="A1:M999"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="23.109375" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" customWidth="1"/>
-    <col min="7" max="7" width="56.44140625" customWidth="1"/>
-    <col min="8" max="8" width="53.44140625" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" customWidth="1"/>
-    <col min="10" max="10" width="23" customWidth="1"/>
-    <col min="11" max="12" width="32.5546875" customWidth="1"/>
-    <col min="13" max="13" width="13.77734375" customWidth="1"/>
+    <col min="1" max="4" width="23.109375" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" customWidth="1"/>
+    <col min="6" max="6" width="43.33203125" customWidth="1"/>
+    <col min="7" max="7" width="30.109375" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" customWidth="1"/>
+    <col min="9" max="9" width="23" customWidth="1"/>
+    <col min="10" max="11" width="32.5546875" customWidth="1"/>
+    <col min="12" max="12" width="13.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
+      <c r="A1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
+      <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>32</v>
+    <row r="3" spans="1:13" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="10">
+        <v>45570</v>
+      </c>
+      <c r="C3" s="10">
+        <v>45576</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="11" t="s">
+      <c r="E3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="12">
+        <v>5</v>
+      </c>
+      <c r="I3" s="12">
+        <v>11000</v>
+      </c>
+      <c r="J3" s="12">
+        <v>15000</v>
+      </c>
+      <c r="K3" s="12">
+        <v>16000</v>
+      </c>
+      <c r="L3" s="12">
+        <v>17000</v>
+      </c>
+      <c r="M3" s="12"/>
+    </row>
+    <row r="4" spans="1:13" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="10">
+        <v>45571</v>
+      </c>
+      <c r="C4" s="10">
+        <v>45576</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="E4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="12">
+        <v>6</v>
+      </c>
+      <c r="I4" s="12">
+        <v>11000</v>
+      </c>
+      <c r="J4" s="12">
+        <v>15000</v>
+      </c>
+      <c r="K4" s="12">
+        <v>16000</v>
+      </c>
+      <c r="L4" s="12">
+        <v>17000</v>
+      </c>
+      <c r="M4" s="12"/>
     </row>
-    <row r="4" spans="1:13" s="6" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
+    <row r="5" spans="1:13" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="16">
-        <v>45570</v>
-      </c>
-      <c r="C4" s="16">
+      <c r="B5" s="10">
+        <v>45572</v>
+      </c>
+      <c r="C5" s="10">
         <v>45576</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D5" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="12" t="s">
+      <c r="E5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="12">
+        <v>7</v>
+      </c>
+      <c r="I5" s="12">
+        <v>11000</v>
+      </c>
+      <c r="J5" s="12">
+        <v>15000</v>
+      </c>
+      <c r="K5" s="12">
+        <v>16000</v>
+      </c>
+      <c r="L5" s="12">
+        <v>17000</v>
+      </c>
+      <c r="M5" s="12"/>
+    </row>
+    <row r="6" spans="1:13" s="3" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10">
+        <v>45573</v>
+      </c>
+      <c r="C6" s="10">
+        <v>45576</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="12">
         <v>8</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="5">
+      <c r="I6" s="12">
+        <v>11000</v>
+      </c>
+      <c r="J6" s="12">
+        <v>15000</v>
+      </c>
+      <c r="K6" s="12">
+        <v>16000</v>
+      </c>
+      <c r="L6" s="12">
+        <v>17000</v>
+      </c>
+      <c r="M6" s="12"/>
+    </row>
+    <row r="7" spans="1:13" s="3" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
+      <c r="B7" s="10">
+        <v>45574</v>
+      </c>
+      <c r="C7" s="10">
+        <v>45576</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="12">
+        <v>9</v>
+      </c>
+      <c r="I7" s="12">
+        <v>11000</v>
+      </c>
+      <c r="J7" s="12">
+        <v>15000</v>
+      </c>
+      <c r="K7" s="12">
+        <v>16000</v>
+      </c>
+      <c r="L7" s="12">
+        <v>17000</v>
+      </c>
+      <c r="M7" s="12"/>
     </row>
-    <row r="5" spans="1:13" s="6" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
+    <row r="8" spans="1:13" s="3" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="16">
-        <v>45571</v>
-      </c>
-      <c r="C5" s="16">
+      <c r="B8" s="10">
+        <v>45575</v>
+      </c>
+      <c r="C8" s="10">
         <v>45576</v>
       </c>
-      <c r="D5" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="5">
-        <v>6</v>
-      </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
+      <c r="D8" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="12">
+        <v>10</v>
+      </c>
+      <c r="I8" s="12">
+        <v>11000</v>
+      </c>
+      <c r="J8" s="12">
+        <v>15000</v>
+      </c>
+      <c r="K8" s="12">
+        <v>16000</v>
+      </c>
+      <c r="L8" s="12">
+        <v>17000</v>
+      </c>
+      <c r="M8" s="12"/>
     </row>
-    <row r="6" spans="1:13" s="6" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="16">
-        <v>45572</v>
-      </c>
-      <c r="C6" s="16">
-        <v>45576</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="5">
-        <v>7</v>
-      </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-    </row>
-    <row r="7" spans="1:13" s="6" customFormat="1" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="16">
-        <v>45573</v>
-      </c>
-      <c r="C7" s="16">
-        <v>45576</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="5">
-        <v>8</v>
-      </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-    </row>
-    <row r="8" spans="1:13" s="6" customFormat="1" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="16">
-        <v>45574</v>
-      </c>
-      <c r="C8" s="16">
-        <v>45576</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="5">
-        <v>9</v>
-      </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-    </row>
-    <row r="9" spans="1:13" s="6" customFormat="1" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="16">
-        <v>45575</v>
-      </c>
-      <c r="C9" s="16">
-        <v>45576</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="5">
-        <v>10</v>
-      </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-    </row>
+    <row r="9" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1780,9 +1792,8 @@
     <row r="997" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="998" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="999" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1000" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/report_templates/EXCEL_TO_PRODUCTION_SPARE_PART.xlsx
+++ b/src/main/resources/report_templates/EXCEL_TO_PRODUCTION_SPARE_PART.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\MeuPro\MeUVipPro\src\main\resources\report_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4E0A50-1D74-4341-AD2E-F6499DC53565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{372DC2E5-4650-41AC-A671-5032BB7F72A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_tính1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="ql0egwlKeIuqATQSjatGVj99bnNJqASTPSYUB8ze+Jc="/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t>PO</t>
   </si>
@@ -48,45 +48,12 @@
     <t>Mã hàng hóa</t>
   </si>
   <si>
-    <t>920200800037</t>
-  </si>
-  <si>
-    <t>920201000002</t>
-  </si>
-  <si>
-    <t>920200300004</t>
-  </si>
-  <si>
-    <t>920200100020</t>
-  </si>
-  <si>
-    <t>256833510001</t>
-  </si>
-  <si>
     <t>Mô tả</t>
   </si>
   <si>
     <t>1. KHO HÀNG CHỜ SẢN XUẤT: Bao gồm các trường sau (kho phụ tùng)</t>
   </si>
   <si>
-    <t>Key switch ( two channels for one gear )</t>
-  </si>
-  <si>
-    <t>Combined switch</t>
-  </si>
-  <si>
-    <t>Brake lamp switch JK231</t>
-  </si>
-  <si>
-    <t>Micro-switch ( valve control ) RZ-15GQ22-B3</t>
-  </si>
-  <si>
-    <t>Emergency switch LAY39-01MJ-RC</t>
-  </si>
-  <si>
-    <t>DC converter P80W300-24V</t>
-  </si>
-  <si>
     <t>Số hợp đồng</t>
   </si>
   <si>
@@ -124,16 +91,13 @@
   </si>
   <si>
     <t>FE4P25-35Q</t>
-  </si>
-  <si>
-    <t>251233020001</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,6 +140,11 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -256,9 +225,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -277,6 +243,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -495,7 +462,7 @@
   <dimension ref="A1:M999"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -512,7 +479,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -527,279 +494,291 @@
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="L2" s="8" t="s">
+      <c r="J2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="8" t="s">
-        <v>31</v>
+      <c r="M2" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="9">
         <v>45570</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="9">
         <v>45576</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="12">
+      <c r="D3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="11" t="str">
+        <f ca="1">CHOOSE(RANDBETWEEN(1,4),"Loại động cơ","Thông số càng","Số lượng van","Sideshift") &amp; " " &amp; TEXT(RANDBETWEEN(0,99999),"00000")</f>
+        <v>Sideshift 88895</v>
+      </c>
+      <c r="G3" s="12" t="str">
+        <f ca="1">TEXT(RANDBETWEEN(0,9999999999),"0000000000")</f>
+        <v>8940103543</v>
+      </c>
+      <c r="H3" s="11">
         <v>5</v>
       </c>
-      <c r="I3" s="12">
+      <c r="I3" s="11">
         <v>11000</v>
       </c>
-      <c r="J3" s="12">
+      <c r="J3" s="11">
         <v>15000</v>
       </c>
-      <c r="K3" s="12">
+      <c r="K3" s="11">
         <v>16000</v>
       </c>
-      <c r="L3" s="12">
+      <c r="L3" s="11">
         <v>17000</v>
       </c>
-      <c r="M3" s="12"/>
+      <c r="M3" s="11"/>
     </row>
     <row r="4" spans="1:13" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="9">
         <v>45571</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="9">
         <v>45576</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="12">
+      <c r="D4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="11" t="str">
+        <f t="shared" ref="F4:F8" ca="1" si="0">CHOOSE(RANDBETWEEN(1,4),"Loại động cơ","Thông số càng","Số lượng van","Sideshift") &amp; " " &amp; TEXT(RANDBETWEEN(0,99999),"00000")</f>
+        <v>Thông số càng 92936</v>
+      </c>
+      <c r="G4" s="12" t="str">
+        <f t="shared" ref="G4:G8" ca="1" si="1">TEXT(RANDBETWEEN(0,9999999999),"0000000000")</f>
+        <v>6819587043</v>
+      </c>
+      <c r="H4" s="11">
         <v>6</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="11">
         <v>11000</v>
       </c>
-      <c r="J4" s="12">
+      <c r="J4" s="11">
         <v>15000</v>
       </c>
-      <c r="K4" s="12">
+      <c r="K4" s="11">
         <v>16000</v>
       </c>
-      <c r="L4" s="12">
+      <c r="L4" s="11">
         <v>17000</v>
       </c>
-      <c r="M4" s="12"/>
+      <c r="M4" s="11"/>
     </row>
     <row r="5" spans="1:13" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="9">
         <v>45572</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="9">
         <v>45576</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="12">
+      <c r="D5" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="11" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Loại động cơ 95094</v>
+      </c>
+      <c r="G5" s="12" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>6195446778</v>
+      </c>
+      <c r="H5" s="11">
         <v>7</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="11">
         <v>11000</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="11">
         <v>15000</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K5" s="11">
         <v>16000</v>
       </c>
-      <c r="L5" s="12">
+      <c r="L5" s="11">
         <v>17000</v>
       </c>
-      <c r="M5" s="12"/>
+      <c r="M5" s="11"/>
     </row>
     <row r="6" spans="1:13" s="3" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="9">
         <v>45573</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="9">
         <v>45576</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="12">
+      <c r="D6" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="11" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Thông số càng 67618</v>
+      </c>
+      <c r="G6" s="12" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>0990275847</v>
+      </c>
+      <c r="H6" s="11">
         <v>8</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="11">
         <v>11000</v>
       </c>
-      <c r="J6" s="12">
+      <c r="J6" s="11">
         <v>15000</v>
       </c>
-      <c r="K6" s="12">
+      <c r="K6" s="11">
         <v>16000</v>
       </c>
-      <c r="L6" s="12">
+      <c r="L6" s="11">
         <v>17000</v>
       </c>
-      <c r="M6" s="12"/>
+      <c r="M6" s="11"/>
     </row>
     <row r="7" spans="1:13" s="3" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="9">
         <v>45574</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="9">
         <v>45576</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="12">
+      <c r="D7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="11" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Số lượng van 82068</v>
+      </c>
+      <c r="G7" s="12" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>5027096502</v>
+      </c>
+      <c r="H7" s="11">
         <v>9</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="11">
         <v>11000</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J7" s="11">
         <v>15000</v>
       </c>
-      <c r="K7" s="12">
+      <c r="K7" s="11">
         <v>16000</v>
       </c>
-      <c r="L7" s="12">
+      <c r="L7" s="11">
         <v>17000</v>
       </c>
-      <c r="M7" s="12"/>
+      <c r="M7" s="11"/>
     </row>
     <row r="8" spans="1:13" s="3" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="9">
         <v>45575</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="9">
         <v>45576</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" s="12">
+      <c r="D8" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="11" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Loại động cơ 12988</v>
+      </c>
+      <c r="G8" s="12" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>0734652238</v>
+      </c>
+      <c r="H8" s="11">
         <v>10</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="11">
         <v>11000</v>
       </c>
-      <c r="J8" s="12">
+      <c r="J8" s="11">
         <v>15000</v>
       </c>
-      <c r="K8" s="12">
+      <c r="K8" s="11">
         <v>16000</v>
       </c>
-      <c r="L8" s="12">
+      <c r="L8" s="11">
         <v>17000</v>
       </c>
-      <c r="M8" s="12"/>
+      <c r="M8" s="11"/>
     </row>
     <row r="9" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1793,6 +1772,7 @@
     <row r="998" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="999" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>

--- a/src/main/resources/report_templates/EXCEL_TO_PRODUCTION_SPARE_PART.xlsx
+++ b/src/main/resources/report_templates/EXCEL_TO_PRODUCTION_SPARE_PART.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\MeuPro\MeUVipPro\src\main\resources\report_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{372DC2E5-4650-41AC-A671-5032BB7F72A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54A8FABB-2E6C-40E0-9420-1A418F74183C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_tính1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>PO</t>
   </si>
@@ -88,9 +88,6 @@
   </si>
   <si>
     <t>Ghi chú</t>
-  </si>
-  <si>
-    <t>FE4P25-35Q</t>
   </si>
 </sst>
 </file>
@@ -147,7 +144,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -160,8 +157,14 @@
         <bgColor rgb="FFF7CAAC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor rgb="FFF7CAAC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -208,16 +211,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -225,9 +240,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -244,6 +256,22 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -461,8 +489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -478,12 +506,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -494,291 +522,337 @@
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:13" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="7">
         <v>45570</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="7">
         <v>45576</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="11" t="str">
+      <c r="E3" s="10" t="str">
+        <f ca="1">CHOOSE(RANDBETWEEN(1,11),
+"8FB15","8FD25","7FBEU18",
+"FB25-12","FD30T-16",
+"J2.5XN","H3.0FT",
+"FE4P16","FE4P25","FE3D20N")</f>
+        <v>FE4P25</v>
+      </c>
+      <c r="F3" s="9" t="str">
         <f ca="1">CHOOSE(RANDBETWEEN(1,4),"Loại động cơ","Thông số càng","Số lượng van","Sideshift") &amp; " " &amp; TEXT(RANDBETWEEN(0,99999),"00000")</f>
-        <v>Sideshift 88895</v>
-      </c>
-      <c r="G3" s="12" t="str">
+        <v>Thông số càng 32002</v>
+      </c>
+      <c r="G3" s="10" t="str">
         <f ca="1">TEXT(RANDBETWEEN(0,9999999999),"0000000000")</f>
-        <v>8940103543</v>
-      </c>
-      <c r="H3" s="11">
+        <v>8109420862</v>
+      </c>
+      <c r="H3" s="9">
         <v>5</v>
       </c>
-      <c r="I3" s="11">
-        <v>11000</v>
-      </c>
-      <c r="J3" s="11">
-        <v>15000</v>
-      </c>
-      <c r="K3" s="11">
-        <v>16000</v>
-      </c>
-      <c r="L3" s="11">
-        <v>17000</v>
-      </c>
-      <c r="M3" s="11"/>
+      <c r="I3" s="9">
+        <f ca="1">RANDBETWEEN(1,5)*10</f>
+        <v>50</v>
+      </c>
+      <c r="J3" s="16">
+        <f ca="1">RANDBETWEEN(16,20)*10</f>
+        <v>200</v>
+      </c>
+      <c r="K3" s="9">
+        <f ca="1">RANDBETWEEN(6,10)*10</f>
+        <v>80</v>
+      </c>
+      <c r="L3" s="15">
+        <f ca="1">RANDBETWEEN(11,15)*10</f>
+        <v>130</v>
+      </c>
+      <c r="M3" s="9"/>
     </row>
-    <row r="4" spans="1:13" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:13" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="7">
         <v>45571</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="7">
         <v>45576</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="11" t="str">
+      <c r="E4" s="10" t="str">
+        <f ca="1">CHOOSE(RANDBETWEEN(1,11),
+"8FB15","8FD25","7FBEU18",
+"FB25-12","FD30T-16",
+"J2.5XN","H3.0FT",
+"FE4P16","FE4P25","FE3D20N")</f>
+        <v>FD30T-16</v>
+      </c>
+      <c r="F4" s="9" t="str">
         <f t="shared" ref="F4:F8" ca="1" si="0">CHOOSE(RANDBETWEEN(1,4),"Loại động cơ","Thông số càng","Số lượng van","Sideshift") &amp; " " &amp; TEXT(RANDBETWEEN(0,99999),"00000")</f>
-        <v>Thông số càng 92936</v>
-      </c>
-      <c r="G4" s="12" t="str">
+        <v>Loại động cơ 31313</v>
+      </c>
+      <c r="G4" s="10" t="str">
         <f t="shared" ref="G4:G8" ca="1" si="1">TEXT(RANDBETWEEN(0,9999999999),"0000000000")</f>
-        <v>6819587043</v>
-      </c>
-      <c r="H4" s="11">
+        <v>0859148732</v>
+      </c>
+      <c r="H4" s="9">
         <v>6</v>
       </c>
-      <c r="I4" s="11">
-        <v>11000</v>
-      </c>
-      <c r="J4" s="11">
-        <v>15000</v>
-      </c>
-      <c r="K4" s="11">
-        <v>16000</v>
-      </c>
-      <c r="L4" s="11">
-        <v>17000</v>
-      </c>
-      <c r="M4" s="11"/>
+      <c r="I4" s="9">
+        <f t="shared" ref="I4:I8" ca="1" si="2">RANDBETWEEN(1,5)*10</f>
+        <v>10</v>
+      </c>
+      <c r="J4" s="16">
+        <f t="shared" ref="J4:J8" ca="1" si="3">RANDBETWEEN(16,20)*10</f>
+        <v>170</v>
+      </c>
+      <c r="K4" s="9">
+        <f t="shared" ref="K4:K8" ca="1" si="4">RANDBETWEEN(6,10)*10</f>
+        <v>60</v>
+      </c>
+      <c r="L4" s="15">
+        <f t="shared" ref="L4:L8" ca="1" si="5">RANDBETWEEN(11,15)*10</f>
+        <v>130</v>
+      </c>
+      <c r="M4" s="9"/>
     </row>
-    <row r="5" spans="1:13" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:13" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="7">
         <v>45572</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="7">
         <v>45576</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="11" t="str">
+      <c r="E5" s="10" t="str">
+        <f t="shared" ref="E5:E8" ca="1" si="6">CHOOSE(RANDBETWEEN(1,11),
+"8FB15","8FD25","7FBEU18",
+"FB25-12","FD30T-16",
+"J2.5XN","H3.0FT",
+"FE4P16","FE4P25","FE3D20N")</f>
+        <v>7FBEU18</v>
+      </c>
+      <c r="F5" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Loại động cơ 95094</v>
-      </c>
-      <c r="G5" s="12" t="str">
+        <v>Thông số càng 99226</v>
+      </c>
+      <c r="G5" s="10" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>6195446778</v>
-      </c>
-      <c r="H5" s="11">
+        <v>6290752004</v>
+      </c>
+      <c r="H5" s="9">
         <v>7</v>
       </c>
-      <c r="I5" s="11">
-        <v>11000</v>
-      </c>
-      <c r="J5" s="11">
-        <v>15000</v>
-      </c>
-      <c r="K5" s="11">
-        <v>16000</v>
-      </c>
-      <c r="L5" s="11">
-        <v>17000</v>
-      </c>
-      <c r="M5" s="11"/>
+      <c r="I5" s="9">
+        <f t="shared" ca="1" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="J5" s="16">
+        <f t="shared" ca="1" si="3"/>
+        <v>170</v>
+      </c>
+      <c r="K5" s="9">
+        <f t="shared" ca="1" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="L5" s="15">
+        <f t="shared" ca="1" si="5"/>
+        <v>120</v>
+      </c>
+      <c r="M5" s="9"/>
     </row>
-    <row r="6" spans="1:13" s="3" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:13" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="7">
         <v>45573</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="7">
         <v>45576</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="11" t="str">
+      <c r="E6" s="10" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>FB25-12</v>
+      </c>
+      <c r="F6" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Thông số càng 67618</v>
-      </c>
-      <c r="G6" s="12" t="str">
+        <v>Thông số càng 38188</v>
+      </c>
+      <c r="G6" s="10" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>0990275847</v>
-      </c>
-      <c r="H6" s="11">
+        <v>5507598312</v>
+      </c>
+      <c r="H6" s="9">
         <v>8</v>
       </c>
-      <c r="I6" s="11">
-        <v>11000</v>
-      </c>
-      <c r="J6" s="11">
-        <v>15000</v>
-      </c>
-      <c r="K6" s="11">
-        <v>16000</v>
-      </c>
-      <c r="L6" s="11">
-        <v>17000</v>
-      </c>
-      <c r="M6" s="11"/>
+      <c r="I6" s="9">
+        <f t="shared" ca="1" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="J6" s="16">
+        <f t="shared" ca="1" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="K6" s="9">
+        <f t="shared" ca="1" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="L6" s="15">
+        <f t="shared" ca="1" si="5"/>
+        <v>130</v>
+      </c>
+      <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" s="3" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:13" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="7">
         <v>45574</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="7">
         <v>45576</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="11" t="str">
+      <c r="E7" s="10" t="str">
+        <f ca="1">CHOOSE(RANDBETWEEN(1,11),
+"8FB15","8FD25","7FBEU18",
+"FB25-12","FD30T-16",
+"J2.5XN","H3.0FT",
+"FE4P16","FE4P25","FE3D20N")</f>
+        <v>FD30T-16</v>
+      </c>
+      <c r="F7" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Số lượng van 82068</v>
-      </c>
-      <c r="G7" s="12" t="str">
+        <v>Thông số càng 03321</v>
+      </c>
+      <c r="G7" s="10" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>5027096502</v>
-      </c>
-      <c r="H7" s="11">
+        <v>9600017500</v>
+      </c>
+      <c r="H7" s="9">
         <v>9</v>
       </c>
-      <c r="I7" s="11">
-        <v>11000</v>
-      </c>
-      <c r="J7" s="11">
-        <v>15000</v>
-      </c>
-      <c r="K7" s="11">
-        <v>16000</v>
-      </c>
-      <c r="L7" s="11">
-        <v>17000</v>
-      </c>
-      <c r="M7" s="11"/>
+      <c r="I7" s="9">
+        <f t="shared" ca="1" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="J7" s="16">
+        <f t="shared" ca="1" si="3"/>
+        <v>170</v>
+      </c>
+      <c r="K7" s="9">
+        <f t="shared" ca="1" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="L7" s="15">
+        <f t="shared" ca="1" si="5"/>
+        <v>110</v>
+      </c>
+      <c r="M7" s="9"/>
     </row>
-    <row r="8" spans="1:13" s="3" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:13" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="7">
         <v>45575</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="7">
         <v>45576</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="11" t="str">
+      <c r="E8" s="10" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>FE3D20N</v>
+      </c>
+      <c r="F8" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Loại động cơ 12988</v>
-      </c>
-      <c r="G8" s="12" t="str">
+        <v>Số lượng van 25233</v>
+      </c>
+      <c r="G8" s="10" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>0734652238</v>
-      </c>
-      <c r="H8" s="11">
+        <v>8829025335</v>
+      </c>
+      <c r="H8" s="9">
         <v>10</v>
       </c>
-      <c r="I8" s="11">
-        <v>11000</v>
-      </c>
-      <c r="J8" s="11">
-        <v>15000</v>
-      </c>
-      <c r="K8" s="11">
-        <v>16000</v>
-      </c>
-      <c r="L8" s="11">
-        <v>17000</v>
-      </c>
-      <c r="M8" s="11"/>
+      <c r="I8" s="9">
+        <f t="shared" ca="1" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="J8" s="16">
+        <f t="shared" ca="1" si="3"/>
+        <v>160</v>
+      </c>
+      <c r="K8" s="9">
+        <f t="shared" ca="1" si="4"/>
+        <v>70</v>
+      </c>
+      <c r="L8" s="15">
+        <f t="shared" ca="1" si="5"/>
+        <v>150</v>
+      </c>
+      <c r="M8" s="9"/>
     </row>
     <row r="9" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/src/main/resources/report_templates/EXCEL_TO_PRODUCTION_SPARE_PART.xlsx
+++ b/src/main/resources/report_templates/EXCEL_TO_PRODUCTION_SPARE_PART.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\MeuPro\MeUVipPro\src\main\resources\report_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MeU\MeuPro\MeUVipPro\src\main\resources\report_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54A8FABB-2E6C-40E0-9420-1A418F74183C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25661DD8-D737-47FB-A260-B9F1053AFEFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_tính1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>PO</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>Ghi chú</t>
+  </si>
+  <si>
+    <t>Giá khác</t>
   </si>
 </sst>
 </file>
@@ -487,25 +490,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M999"/>
+  <dimension ref="A1:N999"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="4" width="23.109375" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" customWidth="1"/>
+    <col min="5" max="5" width="36.88671875" customWidth="1"/>
     <col min="6" max="6" width="43.33203125" customWidth="1"/>
     <col min="7" max="7" width="30.109375" customWidth="1"/>
     <col min="8" max="8" width="8.6640625" customWidth="1"/>
     <col min="9" max="9" width="23" customWidth="1"/>
-    <col min="10" max="11" width="32.5546875" customWidth="1"/>
-    <col min="12" max="12" width="13.77734375" customWidth="1"/>
+    <col min="10" max="12" width="32.5546875" customWidth="1"/>
+    <col min="13" max="13" width="13.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -520,8 +523,9 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -555,14 +559,17 @@
       <c r="K2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="L2" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
@@ -581,15 +588,15 @@
 "FB25-12","FD30T-16",
 "J2.5XN","H3.0FT",
 "FE4P16","FE4P25","FE3D20N")</f>
-        <v>FE4P25</v>
+        <v>8FD25</v>
       </c>
       <c r="F3" s="9" t="str">
         <f ca="1">CHOOSE(RANDBETWEEN(1,4),"Loại động cơ","Thông số càng","Số lượng van","Sideshift") &amp; " " &amp; TEXT(RANDBETWEEN(0,99999),"00000")</f>
-        <v>Thông số càng 32002</v>
+        <v>Loại động cơ 85172</v>
       </c>
       <c r="G3" s="10" t="str">
         <f ca="1">TEXT(RANDBETWEEN(0,9999999999),"0000000000")</f>
-        <v>8109420862</v>
+        <v>3490522148</v>
       </c>
       <c r="H3" s="9">
         <v>5</v>
@@ -600,19 +607,23 @@
       </c>
       <c r="J3" s="16">
         <f ca="1">RANDBETWEEN(16,20)*10</f>
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="K3" s="9">
         <f ca="1">RANDBETWEEN(6,10)*10</f>
-        <v>80</v>
-      </c>
-      <c r="L3" s="15">
+        <v>90</v>
+      </c>
+      <c r="L3" s="9">
+        <f ca="1">RANDBETWEEN(6,10)*10</f>
+        <v>90</v>
+      </c>
+      <c r="M3" s="15">
         <f ca="1">RANDBETWEEN(11,15)*10</f>
-        <v>130</v>
-      </c>
-      <c r="M3" s="9"/>
+        <v>150</v>
+      </c>
+      <c r="N3" s="9"/>
     </row>
-    <row r="4" spans="1:13" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
@@ -631,38 +642,42 @@
 "FB25-12","FD30T-16",
 "J2.5XN","H3.0FT",
 "FE4P16","FE4P25","FE3D20N")</f>
-        <v>FD30T-16</v>
+        <v>J2.5XN</v>
       </c>
       <c r="F4" s="9" t="str">
         <f t="shared" ref="F4:F8" ca="1" si="0">CHOOSE(RANDBETWEEN(1,4),"Loại động cơ","Thông số càng","Số lượng van","Sideshift") &amp; " " &amp; TEXT(RANDBETWEEN(0,99999),"00000")</f>
-        <v>Loại động cơ 31313</v>
+        <v>Thông số càng 31156</v>
       </c>
       <c r="G4" s="10" t="str">
         <f t="shared" ref="G4:G8" ca="1" si="1">TEXT(RANDBETWEEN(0,9999999999),"0000000000")</f>
-        <v>0859148732</v>
+        <v>1683403084</v>
       </c>
       <c r="H4" s="9">
         <v>6</v>
       </c>
       <c r="I4" s="9">
         <f t="shared" ref="I4:I8" ca="1" si="2">RANDBETWEEN(1,5)*10</f>
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="J4" s="16">
         <f t="shared" ref="J4:J8" ca="1" si="3">RANDBETWEEN(16,20)*10</f>
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="K4" s="9">
-        <f t="shared" ref="K4:K8" ca="1" si="4">RANDBETWEEN(6,10)*10</f>
-        <v>60</v>
-      </c>
-      <c r="L4" s="15">
-        <f t="shared" ref="L4:L8" ca="1" si="5">RANDBETWEEN(11,15)*10</f>
-        <v>130</v>
-      </c>
-      <c r="M4" s="9"/>
+        <f t="shared" ref="K4:L8" ca="1" si="4">RANDBETWEEN(6,10)*10</f>
+        <v>100</v>
+      </c>
+      <c r="L4" s="9">
+        <f t="shared" ca="1" si="4"/>
+        <v>70</v>
+      </c>
+      <c r="M4" s="15">
+        <f t="shared" ref="M4:M8" ca="1" si="5">RANDBETWEEN(11,15)*10</f>
+        <v>120</v>
+      </c>
+      <c r="N4" s="9"/>
     </row>
-    <row r="5" spans="1:13" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -681,22 +696,22 @@
 "FB25-12","FD30T-16",
 "J2.5XN","H3.0FT",
 "FE4P16","FE4P25","FE3D20N")</f>
-        <v>7FBEU18</v>
+        <v>FE4P25</v>
       </c>
       <c r="F5" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Thông số càng 99226</v>
+        <v>Số lượng van 92893</v>
       </c>
       <c r="G5" s="10" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>6290752004</v>
+        <v>0975637912</v>
       </c>
       <c r="H5" s="9">
         <v>7</v>
       </c>
       <c r="I5" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="J5" s="16">
         <f t="shared" ca="1" si="3"/>
@@ -706,13 +721,17 @@
         <f t="shared" ca="1" si="4"/>
         <v>80</v>
       </c>
-      <c r="L5" s="15">
+      <c r="L5" s="9">
+        <f t="shared" ca="1" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="M5" s="15">
         <f t="shared" ca="1" si="5"/>
-        <v>120</v>
-      </c>
-      <c r="M5" s="9"/>
+        <v>140</v>
+      </c>
+      <c r="N5" s="9"/>
     </row>
-    <row r="6" spans="1:13" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
@@ -727,15 +746,15 @@
       </c>
       <c r="E6" s="10" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>FB25-12</v>
+        <v>8FB15</v>
       </c>
       <c r="F6" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Thông số càng 38188</v>
+        <v>Loại động cơ 87708</v>
       </c>
       <c r="G6" s="10" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>5507598312</v>
+        <v>5985996952</v>
       </c>
       <c r="H6" s="9">
         <v>8</v>
@@ -746,19 +765,23 @@
       </c>
       <c r="J6" s="16">
         <f t="shared" ca="1" si="3"/>
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="K6" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>100</v>
-      </c>
-      <c r="L6" s="15">
+        <v>70</v>
+      </c>
+      <c r="L6" s="9">
+        <f t="shared" ca="1" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="M6" s="15">
         <f t="shared" ca="1" si="5"/>
-        <v>130</v>
-      </c>
-      <c r="M6" s="9"/>
+        <v>140</v>
+      </c>
+      <c r="N6" s="9"/>
     </row>
-    <row r="7" spans="1:13" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
@@ -777,15 +800,15 @@
 "FB25-12","FD30T-16",
 "J2.5XN","H3.0FT",
 "FE4P16","FE4P25","FE3D20N")</f>
-        <v>FD30T-16</v>
+        <v>H3.0FT</v>
       </c>
       <c r="F7" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Thông số càng 03321</v>
+        <v>Loại động cơ 24453</v>
       </c>
       <c r="G7" s="10" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>9600017500</v>
+        <v>4171670530</v>
       </c>
       <c r="H7" s="9">
         <v>9</v>
@@ -800,15 +823,19 @@
       </c>
       <c r="K7" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>100</v>
-      </c>
-      <c r="L7" s="15">
+        <v>60</v>
+      </c>
+      <c r="L7" s="9">
+        <f t="shared" ca="1" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="M7" s="15">
         <f t="shared" ca="1" si="5"/>
-        <v>110</v>
-      </c>
-      <c r="M7" s="9"/>
+        <v>150</v>
+      </c>
+      <c r="N7" s="9"/>
     </row>
-    <row r="8" spans="1:13" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>5</v>
       </c>
@@ -823,22 +850,22 @@
       </c>
       <c r="E8" s="10" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>FE3D20N</v>
+        <v>FE4P16</v>
       </c>
       <c r="F8" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Số lượng van 25233</v>
+        <v>Số lượng van 78886</v>
       </c>
       <c r="G8" s="10" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>8829025335</v>
+        <v>7091194733</v>
       </c>
       <c r="H8" s="9">
         <v>10</v>
       </c>
       <c r="I8" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="J8" s="16">
         <f t="shared" ca="1" si="3"/>
@@ -846,22 +873,26 @@
       </c>
       <c r="K8" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>70</v>
-      </c>
-      <c r="L8" s="15">
+        <v>80</v>
+      </c>
+      <c r="L8" s="9">
+        <f t="shared" ca="1" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="M8" s="15">
         <f t="shared" ca="1" si="5"/>
-        <v>150</v>
-      </c>
-      <c r="M8" s="9"/>
+        <v>140</v>
+      </c>
+      <c r="N8" s="9"/>
     </row>
-    <row r="9" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="18" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/src/main/resources/report_templates/EXCEL_TO_PRODUCTION_SPARE_PART.xlsx
+++ b/src/main/resources/report_templates/EXCEL_TO_PRODUCTION_SPARE_PART.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MeU\MeuPro\MeUVipPro\src\main\resources\report_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25661DD8-D737-47FB-A260-B9F1053AFEFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02A85E43-2934-4484-AC6F-4304713E1E89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
   <si>
     <t>PO</t>
   </si>
@@ -91,13 +91,64 @@
   </si>
   <si>
     <t>Giá khác</t>
+  </si>
+  <si>
+    <t>8FB15</t>
+  </si>
+  <si>
+    <t>Thông số càng 88734</t>
+  </si>
+  <si>
+    <t>3454976814</t>
+  </si>
+  <si>
+    <t>FE4P16</t>
+  </si>
+  <si>
+    <t>Loại động cơ 61557</t>
+  </si>
+  <si>
+    <t>8671095827</t>
+  </si>
+  <si>
+    <t>FD30T-16</t>
+  </si>
+  <si>
+    <t>Số lượng van 17365</t>
+  </si>
+  <si>
+    <t>7735273602</t>
+  </si>
+  <si>
+    <t>Số lượng van 64553</t>
+  </si>
+  <si>
+    <t>2340786685</t>
+  </si>
+  <si>
+    <t>FB25-12</t>
+  </si>
+  <si>
+    <t>Thông số càng 06816</t>
+  </si>
+  <si>
+    <t>5935655771</t>
+  </si>
+  <si>
+    <t>8FD25</t>
+  </si>
+  <si>
+    <t>Sideshift 13935</t>
+  </si>
+  <si>
+    <t>6618779189</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,12 +170,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
@@ -167,22 +212,11 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -205,9 +239,7 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -216,16 +248,14 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
+      <right/>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -233,48 +263,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -493,7 +507,7 @@
   <dimension ref="A1:N999"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -509,12 +523,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -529,43 +543,43 @@
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="M2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="10" t="s">
         <v>20</v>
       </c>
     </row>
@@ -573,317 +587,253 @@
       <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="4">
         <v>45570</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="4">
         <v>45576</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="10" t="str">
-        <f ca="1">CHOOSE(RANDBETWEEN(1,11),
-"8FB15","8FD25","7FBEU18",
-"FB25-12","FD30T-16",
-"J2.5XN","H3.0FT",
-"FE4P16","FE4P25","FE3D20N")</f>
-        <v>8FD25</v>
-      </c>
-      <c r="F3" s="9" t="str">
-        <f ca="1">CHOOSE(RANDBETWEEN(1,4),"Loại động cơ","Thông số càng","Số lượng van","Sideshift") &amp; " " &amp; TEXT(RANDBETWEEN(0,99999),"00000")</f>
-        <v>Loại động cơ 85172</v>
-      </c>
-      <c r="G3" s="10" t="str">
-        <f ca="1">TEXT(RANDBETWEEN(0,9999999999),"0000000000")</f>
-        <v>3490522148</v>
-      </c>
-      <c r="H3" s="9">
+      <c r="E3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="4">
         <v>5</v>
       </c>
-      <c r="I3" s="9">
-        <f ca="1">RANDBETWEEN(1,5)*10</f>
-        <v>50</v>
-      </c>
-      <c r="J3" s="16">
-        <f ca="1">RANDBETWEEN(16,20)*10</f>
-        <v>180</v>
-      </c>
-      <c r="K3" s="9">
-        <f ca="1">RANDBETWEEN(6,10)*10</f>
-        <v>90</v>
-      </c>
-      <c r="L3" s="9">
-        <f ca="1">RANDBETWEEN(6,10)*10</f>
-        <v>90</v>
-      </c>
-      <c r="M3" s="15">
-        <f ca="1">RANDBETWEEN(11,15)*10</f>
-        <v>150</v>
-      </c>
-      <c r="N3" s="9"/>
+      <c r="I3" s="4">
+        <v>40</v>
+      </c>
+      <c r="J3" s="4">
+        <v>190</v>
+      </c>
+      <c r="K3" s="4">
+        <v>60</v>
+      </c>
+      <c r="L3" s="4">
+        <v>70</v>
+      </c>
+      <c r="M3" s="4">
+        <v>120</v>
+      </c>
+      <c r="N3" s="4"/>
     </row>
     <row r="4" spans="1:14" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="4">
         <v>45571</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="4">
         <v>45576</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="10" t="str">
-        <f ca="1">CHOOSE(RANDBETWEEN(1,11),
-"8FB15","8FD25","7FBEU18",
-"FB25-12","FD30T-16",
-"J2.5XN","H3.0FT",
-"FE4P16","FE4P25","FE3D20N")</f>
-        <v>J2.5XN</v>
-      </c>
-      <c r="F4" s="9" t="str">
-        <f t="shared" ref="F4:F8" ca="1" si="0">CHOOSE(RANDBETWEEN(1,4),"Loại động cơ","Thông số càng","Số lượng van","Sideshift") &amp; " " &amp; TEXT(RANDBETWEEN(0,99999),"00000")</f>
-        <v>Thông số càng 31156</v>
-      </c>
-      <c r="G4" s="10" t="str">
-        <f t="shared" ref="G4:G8" ca="1" si="1">TEXT(RANDBETWEEN(0,9999999999),"0000000000")</f>
-        <v>1683403084</v>
-      </c>
-      <c r="H4" s="9">
+      <c r="E4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="4">
         <v>6</v>
       </c>
-      <c r="I4" s="9">
-        <f t="shared" ref="I4:I8" ca="1" si="2">RANDBETWEEN(1,5)*10</f>
+      <c r="I4" s="4">
         <v>50</v>
       </c>
-      <c r="J4" s="16">
-        <f t="shared" ref="J4:J8" ca="1" si="3">RANDBETWEEN(16,20)*10</f>
+      <c r="J4" s="4">
         <v>200</v>
       </c>
-      <c r="K4" s="9">
-        <f t="shared" ref="K4:L8" ca="1" si="4">RANDBETWEEN(6,10)*10</f>
-        <v>100</v>
-      </c>
-      <c r="L4" s="9">
-        <f t="shared" ca="1" si="4"/>
+      <c r="K4" s="4">
+        <v>60</v>
+      </c>
+      <c r="L4" s="4">
         <v>70</v>
       </c>
-      <c r="M4" s="15">
-        <f t="shared" ref="M4:M8" ca="1" si="5">RANDBETWEEN(11,15)*10</f>
-        <v>120</v>
-      </c>
-      <c r="N4" s="9"/>
+      <c r="M4" s="4">
+        <v>130</v>
+      </c>
+      <c r="N4" s="4"/>
     </row>
     <row r="5" spans="1:14" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="4">
         <v>45572</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="4">
         <v>45576</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="10" t="str">
-        <f t="shared" ref="E5:E8" ca="1" si="6">CHOOSE(RANDBETWEEN(1,11),
-"8FB15","8FD25","7FBEU18",
-"FB25-12","FD30T-16",
-"J2.5XN","H3.0FT",
-"FE4P16","FE4P25","FE3D20N")</f>
-        <v>FE4P25</v>
-      </c>
-      <c r="F5" s="9" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Số lượng van 92893</v>
-      </c>
-      <c r="G5" s="10" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>0975637912</v>
-      </c>
-      <c r="H5" s="9">
+      <c r="E5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="4">
         <v>7</v>
       </c>
-      <c r="I5" s="9">
-        <f t="shared" ca="1" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="J5" s="16">
-        <f t="shared" ca="1" si="3"/>
+      <c r="I5" s="4">
+        <v>40</v>
+      </c>
+      <c r="J5" s="4">
         <v>170</v>
       </c>
-      <c r="K5" s="9">
-        <f t="shared" ca="1" si="4"/>
-        <v>80</v>
-      </c>
-      <c r="L5" s="9">
-        <f t="shared" ca="1" si="4"/>
-        <v>90</v>
-      </c>
-      <c r="M5" s="15">
-        <f t="shared" ca="1" si="5"/>
-        <v>140</v>
-      </c>
-      <c r="N5" s="9"/>
+      <c r="K5" s="4">
+        <v>60</v>
+      </c>
+      <c r="L5" s="4">
+        <v>60</v>
+      </c>
+      <c r="M5" s="4">
+        <v>110</v>
+      </c>
+      <c r="N5" s="4"/>
     </row>
     <row r="6" spans="1:14" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="4">
         <v>45573</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="4">
         <v>45576</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="10" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>8FB15</v>
-      </c>
-      <c r="F6" s="9" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Loại động cơ 87708</v>
-      </c>
-      <c r="G6" s="10" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>5985996952</v>
-      </c>
-      <c r="H6" s="9">
+      <c r="E6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="4">
         <v>8</v>
       </c>
-      <c r="I6" s="9">
-        <f t="shared" ca="1" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="J6" s="16">
-        <f t="shared" ca="1" si="3"/>
-        <v>170</v>
-      </c>
-      <c r="K6" s="9">
-        <f t="shared" ca="1" si="4"/>
-        <v>70</v>
-      </c>
-      <c r="L6" s="9">
-        <f t="shared" ca="1" si="4"/>
-        <v>60</v>
-      </c>
-      <c r="M6" s="15">
-        <f t="shared" ca="1" si="5"/>
-        <v>140</v>
-      </c>
-      <c r="N6" s="9"/>
+      <c r="I6" s="4">
+        <v>40</v>
+      </c>
+      <c r="J6" s="4">
+        <v>180</v>
+      </c>
+      <c r="K6" s="4">
+        <v>80</v>
+      </c>
+      <c r="L6" s="4">
+        <v>80</v>
+      </c>
+      <c r="M6" s="4">
+        <v>120</v>
+      </c>
+      <c r="N6" s="4"/>
     </row>
     <row r="7" spans="1:14" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="4">
         <v>45574</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="4">
         <v>45576</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="10" t="str">
-        <f ca="1">CHOOSE(RANDBETWEEN(1,11),
-"8FB15","8FD25","7FBEU18",
-"FB25-12","FD30T-16",
-"J2.5XN","H3.0FT",
-"FE4P16","FE4P25","FE3D20N")</f>
-        <v>H3.0FT</v>
-      </c>
-      <c r="F7" s="9" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Loại động cơ 24453</v>
-      </c>
-      <c r="G7" s="10" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>4171670530</v>
-      </c>
-      <c r="H7" s="9">
+      <c r="E7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="4">
         <v>9</v>
       </c>
-      <c r="I7" s="9">
-        <f t="shared" ca="1" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="J7" s="16">
-        <f t="shared" ca="1" si="3"/>
-        <v>170</v>
-      </c>
-      <c r="K7" s="9">
-        <f t="shared" ca="1" si="4"/>
-        <v>60</v>
-      </c>
-      <c r="L7" s="9">
-        <f t="shared" ca="1" si="4"/>
-        <v>60</v>
-      </c>
-      <c r="M7" s="15">
-        <f t="shared" ca="1" si="5"/>
-        <v>150</v>
-      </c>
-      <c r="N7" s="9"/>
+      <c r="I7" s="4">
+        <v>40</v>
+      </c>
+      <c r="J7" s="4">
+        <v>200</v>
+      </c>
+      <c r="K7" s="4">
+        <v>70</v>
+      </c>
+      <c r="L7" s="4">
+        <v>80</v>
+      </c>
+      <c r="M7" s="4">
+        <v>120</v>
+      </c>
+      <c r="N7" s="4"/>
     </row>
     <row r="8" spans="1:14" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="4">
         <v>45575</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="4">
         <v>45576</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="10" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>FE4P16</v>
-      </c>
-      <c r="F8" s="9" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Số lượng van 78886</v>
-      </c>
-      <c r="G8" s="10" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>7091194733</v>
-      </c>
-      <c r="H8" s="9">
+      <c r="E8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="4">
         <v>10</v>
       </c>
-      <c r="I8" s="9">
-        <f t="shared" ca="1" si="2"/>
+      <c r="I8" s="4">
         <v>30</v>
       </c>
-      <c r="J8" s="16">
-        <f t="shared" ca="1" si="3"/>
-        <v>160</v>
-      </c>
-      <c r="K8" s="9">
-        <f t="shared" ca="1" si="4"/>
+      <c r="J8" s="4">
+        <v>180</v>
+      </c>
+      <c r="K8" s="4">
         <v>80</v>
       </c>
-      <c r="L8" s="9">
-        <f t="shared" ca="1" si="4"/>
-        <v>60</v>
-      </c>
-      <c r="M8" s="15">
-        <f t="shared" ca="1" si="5"/>
-        <v>140</v>
-      </c>
-      <c r="N8" s="9"/>
+      <c r="L8" s="4">
+        <v>80</v>
+      </c>
+      <c r="M8" s="4">
+        <v>130</v>
+      </c>
+      <c r="N8" s="4"/>
     </row>
     <row r="9" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1877,7 +1827,7 @@
     <row r="998" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="999" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
